--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Documents\coronadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E5B186-A158-41E0-92CA-44B655B312F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875BC212-BCBF-477B-B84F-3084A7C4133C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,9 +44,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -517,7 +527,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,11 +882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,6 +1577,18 @@
         <v>3.355834495884936</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B63">
+        <v>2365</v>
+      </c>
+      <c r="C63">
+        <f>LOG10(B63)</f>
+        <v>3.3738311450738303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875BC212-BCBF-477B-B84F-3084A7C4133C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D2411-29B1-422B-B932-E588176667E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,6 +1589,18 @@
         <v>3.3738311450738303</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B64">
+        <v>2425</v>
+      </c>
+      <c r="C64">
+        <f>LOG10(B64)</f>
+        <v>3.3847117429382823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D2411-29B1-422B-B932-E588176667E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E71859-2E02-4979-BD9A-680F4AD25D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:C64"/>
+      <selection activeCell="C65" sqref="C65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,6 +1601,30 @@
         <v>3.3847117429382823</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B65">
+        <v>2505</v>
+      </c>
+      <c r="C65">
+        <f>LOG10(B65)</f>
+        <v>3.3988077302032647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B66">
+        <v>2575</v>
+      </c>
+      <c r="C66">
+        <f>LOG10(B66)</f>
+        <v>3.4107772333772099</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E71859-2E02-4979-BD9A-680F4AD25D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB999F-2421-44A6-9CAD-2B6656B650D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:C66"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,6 +1625,42 @@
         <v>3.4107772333772099</v>
       </c>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B67">
+        <v>2627</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C69" si="0">LOG10(B67)</f>
+        <v>3.4194600727860704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B68">
+        <v>2648</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>3.4229179807676622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B69">
+        <v>2676</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>3.4274861090957853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB999F-2421-44A6-9CAD-2B6656B650D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F9E43-DB03-419D-BD68-ACA56CE81DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C69" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C70" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1659,6 +1659,18 @@
       <c r="C69">
         <f t="shared" si="0"/>
         <v>3.4274861090957853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B70">
+        <v>2702</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>3.4316853446860116</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F9E43-DB03-419D-BD68-ACA56CE81DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D10F0-6343-4B82-8634-9671662FEBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C70" sqref="C70:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C70" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C71" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1671,6 +1671,18 @@
       <c r="C70">
         <f t="shared" si="0"/>
         <v>3.4316853446860116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B71">
+        <v>2741</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="0"/>
+        <v>3.4379090355394983</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D10F0-6343-4B82-8634-9671662FEBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8A531-630C-4D56-A111-E5558C850075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C71" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C75" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1683,6 +1683,54 @@
       <c r="C71">
         <f t="shared" si="0"/>
         <v>3.4379090355394983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B72">
+        <v>2773</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>3.4429498695778618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B73">
+        <v>2807</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>3.4482424126344391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B74">
+        <v>2851</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>3.4549972173094599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B75">
+        <v>2876</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="0"/>
+        <v>3.458788881710845</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8A531-630C-4D56-A111-E5558C850075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AE854-40E3-40DE-80BF-F6D6C950F162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C75" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C76" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1731,6 +1731,18 @@
       <c r="C75">
         <f t="shared" si="0"/>
         <v>3.458788881710845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B76">
+        <v>2887</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="0"/>
+        <v>3.4604467838807205</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AE854-40E3-40DE-80BF-F6D6C950F162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08978A79-FDCA-4E24-84A2-8070579F60B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="C76" sqref="C76:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C76" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C77" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1743,6 +1743,18 @@
       <c r="C76">
         <f t="shared" si="0"/>
         <v>3.4604467838807205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B77">
+        <v>2930</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>3.4668676203541096</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08978A79-FDCA-4E24-84A2-8070579F60B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDB760-829C-4187-89DA-A509B9F69FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76:C77"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C77" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C79" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1755,6 +1755,30 @@
       <c r="C77">
         <f t="shared" si="0"/>
         <v>3.4668676203541096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B78">
+        <v>2967</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="0"/>
+        <v>3.4723175463168419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B79">
+        <v>3000</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDB760-829C-4187-89DA-A509B9F69FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E4F92-BAEF-4A0A-BCCF-4055D569814C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="C79" sqref="C79:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C79" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C82" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1779,6 +1779,42 @@
       <c r="C79">
         <f t="shared" si="0"/>
         <v>3.4771212547196626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B80">
+        <v>3030</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="0"/>
+        <v>3.4814426285023048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B81">
+        <v>3062</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="0"/>
+        <v>3.4860051863622421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B82">
+        <v>3086</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="0"/>
+        <v>3.4893959217271293</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E4F92-BAEF-4A0A-BCCF-4055D569814C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112B32A-09F6-448B-8201-74B58F3B4ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:C82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C82" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C97" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1815,6 +1815,186 @@
       <c r="C82">
         <f t="shared" si="0"/>
         <v>3.4893959217271293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B83">
+        <v>3104</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="0"/>
+        <v>3.491921712586151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B84">
+        <v>3127</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="0"/>
+        <v>3.4951278812429334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B85">
+        <v>3148</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="0"/>
+        <v>3.4980347236870268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B86">
+        <v>3170</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="0"/>
+        <v>3.5010592622177517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B87">
+        <v>3194</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="0"/>
+        <v>3.5043349118024643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B88">
+        <v>3205</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="0"/>
+        <v>3.5058280338548364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B89">
+        <v>3232</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="0"/>
+        <v>3.5094713521025485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B90">
+        <v>3240</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="0"/>
+        <v>3.510545010206612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B91">
+        <v>3256</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="0"/>
+        <v>3.5126843962171637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B92">
+        <v>3275</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="0"/>
+        <v>3.5152113043278019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B93">
+        <v>3296</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="0"/>
+        <v>3.5179872030250783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B94">
+        <v>3316</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="0"/>
+        <v>3.5206145218782359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B95">
+        <v>3332</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="0"/>
+        <v>3.52270499273475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B96">
+        <v>3350</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="0"/>
+        <v>3.5250448070368452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B97">
+        <v>3356</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="0"/>
+        <v>3.5258219521566625</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112B32A-09F6-448B-8201-74B58F3B4ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34DA1A-440A-4B13-A6CA-415100782633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1633,7 @@
         <v>2627</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C97" si="0">LOG10(B67)</f>
+        <f t="shared" ref="C67:C111" si="0">LOG10(B67)</f>
         <v>3.4194600727860704</v>
       </c>
     </row>
@@ -1995,6 +1995,174 @@
       <c r="C97">
         <f t="shared" si="0"/>
         <v>3.5258219521566625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B98">
+        <v>3386</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="0"/>
+        <v>3.5296869537729165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B99">
+        <v>3419</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="0"/>
+        <v>3.5338991007965945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B100">
+        <v>3457</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="0"/>
+        <v>3.5386993795424067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B101">
+        <v>3488</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="0"/>
+        <v>3.5425764762605296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B102">
+        <v>3511</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="0"/>
+        <v>3.5454308294653512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B103">
+        <v>3534</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="0"/>
+        <v>3.5482665451707454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B104">
+        <v>3563</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="0"/>
+        <v>3.5518158223510157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B105">
+        <v>3596</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="0"/>
+        <v>3.5558196830611912</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B106">
+        <v>3628</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="0"/>
+        <v>3.5596672783880576</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B107">
+        <v>3668</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="0"/>
+        <v>3.5644293269979834</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B108">
+        <v>3706</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="0"/>
+        <v>3.5689054149828787</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B109">
+        <v>3738</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="0"/>
+        <v>3.5726392970428131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B110">
+        <v>3766</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="0"/>
+        <v>3.5758803156806458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B111">
+        <v>3783</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="0"/>
+        <v>3.5778363412927439</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34DA1A-440A-4B13-A6CA-415100782633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C6183-532D-4415-86E0-CF1C942ABD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
